--- a/docs/Biomes_or_something.xlsx
+++ b/docs/Biomes_or_something.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\220\Documents\git\DM2020_AltExam_zpgGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656AAF69-A317-461E-83AD-65C9A0BFCF58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECD8757-1A46-40EF-BA10-D1D677252CDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="2040" windowWidth="18270" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-825" yWindow="1335" windowWidth="18270" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +160,47 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6C6C6C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF6C6C6C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="79">
     <fill>
@@ -880,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -914,9 +955,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1057,6 +1095,72 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="76" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="61" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1067,12 +1171,6 @@
     <xf numFmtId="0" fontId="1" fillId="61" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,131 +1192,125 @@
     <xf numFmtId="0" fontId="2" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="76" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="62" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="62" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="76" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="77" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="77" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="77" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,6 +1320,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6C6C6C"/>
       <color rgb="FF005000"/>
       <color rgb="FF007B00"/>
       <color rgb="FF516231"/>
@@ -1237,7 +1330,6 @@
       <color rgb="FFE9F090"/>
       <color rgb="FF8AF6CA"/>
       <color rgb="FFACEED0"/>
-      <color rgb="FFB4F2B8"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1873,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,18 +1976,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
@@ -1931,7 +2023,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="85" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="28">
@@ -1966,7 +2058,7 @@
       <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="14">
         <v>8</v>
       </c>
@@ -1986,7 +2078,7 @@
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="14">
         <v>7</v>
       </c>
@@ -2014,7 +2106,7 @@
       <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="14">
         <v>6</v>
       </c>
@@ -2036,7 +2128,7 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="14">
         <v>5</v>
       </c>
@@ -2060,7 +2152,7 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="14">
         <v>4</v>
       </c>
@@ -2078,7 +2170,7 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="14">
         <v>3</v>
       </c>
@@ -2102,7 +2194,7 @@
       <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="14">
         <v>2</v>
       </c>
@@ -2126,7 +2218,7 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="14">
         <v>1</v>
       </c>
@@ -2154,7 +2246,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="15">
         <v>0</v>
       </c>
@@ -2175,36 +2267,36 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="94"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="94"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
@@ -2241,223 +2333,263 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="89" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="28">
         <v>9</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="132"/>
+      <c r="C19" s="112">
+        <v>50</v>
+      </c>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="150">
+        <v>40</v>
+      </c>
+      <c r="I19" s="149"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="151"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="14">
         <v>8</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="100"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="116">
+        <v>30</v>
+      </c>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="115"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="14">
         <v>7</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="101" t="s">
+      <c r="D21" s="132"/>
+      <c r="E21" s="135">
+        <v>15</v>
+      </c>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="130">
+        <v>12</v>
+      </c>
+      <c r="I21" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="102"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="146">
+        <v>22</v>
+      </c>
+      <c r="L21" s="145"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="14">
         <v>6</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="122" t="s">
+      <c r="C22" s="131"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="123"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="148">
+        <v>13</v>
+      </c>
+      <c r="K22" s="142"/>
+      <c r="L22" s="143"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="14">
         <v>5</v>
       </c>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="106" t="s">
+      <c r="D23" s="99"/>
+      <c r="E23" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="107" t="s">
+      <c r="F23" s="125"/>
+      <c r="G23" s="128">
+        <v>7</v>
+      </c>
+      <c r="H23" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="37"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="147">
+        <v>19</v>
+      </c>
+      <c r="K23" s="81"/>
+      <c r="L23" s="139">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="14">
         <v>4</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="127"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="138">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="14">
         <v>3</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="103" t="s">
+      <c r="C25" s="127">
+        <v>9</v>
+      </c>
+      <c r="D25" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="128"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="129">
+        <v>11</v>
+      </c>
+      <c r="L25" s="137">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="14">
         <v>2</v>
       </c>
-      <c r="C26" s="108" t="s">
+      <c r="C26" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="128"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="136">
+        <v>6</v>
+      </c>
+      <c r="G26" s="134"/>
+      <c r="H26" s="126">
+        <v>4</v>
+      </c>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="80"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="14">
         <v>1</v>
       </c>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="126"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="124">
+        <v>25</v>
+      </c>
+      <c r="I27" s="122"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="140">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="97"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="32">
         <v>0</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="123">
+        <v>29</v>
+      </c>
+      <c r="I28" s="120"/>
+      <c r="J28" s="117">
+        <v>25</v>
+      </c>
+      <c r="K28" s="117"/>
+      <c r="L28" s="118"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="92"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="111"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="30"/>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="94"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="121"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="88"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="83"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
@@ -2492,200 +2624,190 @@
       <c r="L32" s="31">
         <v>0</v>
       </c>
-      <c r="N32" s="109"/>
-      <c r="O32" s="121"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="83"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="89" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="28">
         <v>9</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="69"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="14">
         <v>8</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="14">
         <v>7</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="36"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="35"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="96"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="14">
         <v>6</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="53"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="52"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="96"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="14">
         <v>5</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="37"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="36"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="96"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="14">
         <v>4</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="37"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="36"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="96"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="14">
         <v>3</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="61"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="60"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="96"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="14">
         <v>2</v>
       </c>
-      <c r="C40" s="87"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="89"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="108"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="96"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="14">
         <v>1</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="83"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="104"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="97"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="32">
         <v>0</v>
       </c>
-      <c r="C42" s="84"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="86"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="17">
+    <mergeCell ref="C41:L41"/>
+    <mergeCell ref="C42:L42"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="I24:J26"/>
+    <mergeCell ref="F21:G22"/>
     <mergeCell ref="N31:O32"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="A19:A28"/>
     <mergeCell ref="A16:L16"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
     <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="I21:L21"/>
     <mergeCell ref="D25:H25"/>
     <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:G24"/>
-    <mergeCell ref="I24:J26"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C21:E22"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="C41:L41"/>
-    <mergeCell ref="C42:L42"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A33:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Biomes_or_something.xlsx
+++ b/docs/Biomes_or_something.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\220\Documents\git\DM2020_AltExam_zpgGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECD8757-1A46-40EF-BA10-D1D677252CDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ACF813-DEBA-4268-864E-C9159E8EF89E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-825" yWindow="1335" windowWidth="18270" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1785" windowWidth="18060" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Вода</t>
   </si>
@@ -132,6 +132,13 @@
   </si>
   <si>
     <t>SMOOTH Colors</t>
+  </si>
+  <si>
+    <t>Влажность(0=сухо -&gt; 99=влажно)</t>
+  </si>
+  <si>
+    <t>Высота 
+(0=низко -&gt; 99=высоко)</t>
   </si>
 </sst>
 </file>
@@ -921,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1102,6 +1109,174 @@
     <xf numFmtId="0" fontId="1" fillId="76" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="62" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="77" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="77" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="77" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,21 +1292,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,10 +1301,10 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,159 +1317,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="61" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="61" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="76" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="62" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="77" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="77" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="77" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1965,29 +1975,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="20" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
@@ -2023,7 +2034,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="141" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="28">
@@ -2058,7 +2069,7 @@
       <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
+      <c r="A4" s="142"/>
       <c r="B4" s="14">
         <v>8</v>
       </c>
@@ -2078,7 +2089,7 @@
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="142"/>
       <c r="B5" s="14">
         <v>7</v>
       </c>
@@ -2106,7 +2117,7 @@
       <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="14">
         <v>6</v>
       </c>
@@ -2128,7 +2139,7 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="14">
         <v>5</v>
       </c>
@@ -2152,7 +2163,7 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
+      <c r="A8" s="142"/>
       <c r="B8" s="14">
         <v>4</v>
       </c>
@@ -2170,7 +2181,7 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="142"/>
       <c r="B9" s="14">
         <v>3</v>
       </c>
@@ -2194,7 +2205,7 @@
       <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
+      <c r="A10" s="142"/>
       <c r="B10" s="14">
         <v>2</v>
       </c>
@@ -2218,7 +2229,7 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="142"/>
       <c r="B11" s="14">
         <v>1</v>
       </c>
@@ -2246,7 +2257,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="142"/>
       <c r="B12" s="15">
         <v>0</v>
       </c>
@@ -2267,36 +2278,36 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="94"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="145"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
+      <c r="C17" s="131" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="132"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
@@ -2333,263 +2344,263 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
-        <v>20</v>
+      <c r="A19" s="133" t="s">
+        <v>36</v>
       </c>
       <c r="B19" s="28">
         <v>9</v>
       </c>
-      <c r="C19" s="112">
+      <c r="C19" s="82">
         <v>50</v>
       </c>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="150">
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="117">
         <v>40</v>
       </c>
-      <c r="I19" s="149"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149"/>
-      <c r="L19" s="151"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="118"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="14">
         <v>8</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="116">
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="86">
         <v>30</v>
       </c>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="115"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="14">
         <v>7</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="135">
+      <c r="D21" s="99"/>
+      <c r="E21" s="102">
         <v>15</v>
       </c>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="130">
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="97">
         <v>12</v>
       </c>
-      <c r="I21" s="144" t="s">
+      <c r="I21" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="144"/>
-      <c r="K21" s="146">
+      <c r="J21" s="111"/>
+      <c r="K21" s="113">
         <v>22</v>
       </c>
-      <c r="L21" s="145"/>
+      <c r="L21" s="112"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="14">
         <v>6</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="142" t="s">
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="142"/>
-      <c r="J22" s="148">
+      <c r="I22" s="109"/>
+      <c r="J22" s="115">
         <v>13</v>
       </c>
-      <c r="K22" s="142"/>
-      <c r="L22" s="143"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="110"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="14">
         <v>5</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="125" t="s">
+      <c r="D23" s="150"/>
+      <c r="E23" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="125"/>
-      <c r="G23" s="128">
+      <c r="F23" s="93"/>
+      <c r="G23" s="96">
         <v>7</v>
       </c>
-      <c r="H23" s="141" t="s">
+      <c r="H23" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="141"/>
-      <c r="J23" s="147">
+      <c r="I23" s="108"/>
+      <c r="J23" s="114">
         <v>19</v>
       </c>
       <c r="K23" s="81"/>
-      <c r="L23" s="139">
+      <c r="L23" s="106">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="14">
         <v>4</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="33"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="138">
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="105">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="14">
         <v>3</v>
       </c>
-      <c r="C25" s="127">
+      <c r="C25" s="95">
         <v>9</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="129">
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="152">
         <v>11</v>
       </c>
-      <c r="L25" s="137">
+      <c r="L25" s="104">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="14">
         <v>2</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="136">
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="103">
         <v>6</v>
       </c>
-      <c r="G26" s="134"/>
-      <c r="H26" s="126">
+      <c r="G26" s="101"/>
+      <c r="H26" s="94">
         <v>4</v>
       </c>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="81"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="151"/>
       <c r="L26" s="80"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="14">
         <v>1</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="124">
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="92">
         <v>25</v>
       </c>
-      <c r="I27" s="122"/>
+      <c r="I27" s="90"/>
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="140">
+      <c r="L27" s="107">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="91"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="32">
         <v>0</v>
       </c>
-      <c r="C28" s="119" t="s">
+      <c r="C28" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="123">
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="91">
         <v>29</v>
       </c>
-      <c r="I28" s="120"/>
-      <c r="J28" s="117">
+      <c r="I28" s="88"/>
+      <c r="J28" s="146">
         <v>25</v>
       </c>
-      <c r="K28" s="117"/>
-      <c r="L28" s="118"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="147"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="111"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="130"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="30"/>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="83"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="132"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="139"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
@@ -2624,11 +2635,11 @@
       <c r="L32" s="31">
         <v>0</v>
       </c>
-      <c r="N32" s="82"/>
-      <c r="O32" s="83"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="139"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="133" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="28">
@@ -2646,7 +2657,7 @@
       <c r="L33" s="69"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="14">
         <v>8</v>
       </c>
@@ -2662,7 +2673,7 @@
       <c r="L34" s="64"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="14">
         <v>7</v>
       </c>
@@ -2678,7 +2689,7 @@
       <c r="L35" s="35"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="14">
         <v>6</v>
       </c>
@@ -2694,7 +2705,7 @@
       <c r="L36" s="52"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="14">
         <v>5</v>
       </c>
@@ -2710,7 +2721,7 @@
       <c r="L37" s="36"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
+      <c r="A38" s="134"/>
       <c r="B38" s="14">
         <v>4</v>
       </c>
@@ -2726,7 +2737,7 @@
       <c r="L38" s="36"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="14">
         <v>3</v>
       </c>
@@ -2742,61 +2753,55 @@
       <c r="L39" s="60"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="14">
         <v>2</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="108"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="126"/>
+      <c r="L40" s="127"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="90"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="14">
         <v>1</v>
       </c>
-      <c r="C41" s="102"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="104"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="121"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="91"/>
+      <c r="A42" s="135"/>
       <c r="B42" s="32">
         <v>0</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="105"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C41:L41"/>
-    <mergeCell ref="C42:L42"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A33:A42"/>
     <mergeCell ref="I24:J26"/>
     <mergeCell ref="F21:G22"/>
     <mergeCell ref="N31:O32"/>
@@ -2808,6 +2813,12 @@
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="D25:H25"/>
     <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C41:L41"/>
+    <mergeCell ref="C42:L42"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A33:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
